--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -449,10 +449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,76 +551,88 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>2220000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10"/>
-    </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="C13" t="s">
+    <row r="15" spans="1:12">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>30000</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>90000</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:12">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>90000</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:12">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K15">
+      <c r="K18">
         <v>90000</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L17">
+      <c r="L21">
         <v>2310000</v>
       </c>
     </row>
@@ -632,14 +644,18 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:I8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Laporan Pengeluaran</t>
   </si>
@@ -23,6 +23,9 @@
     <t>#12566</t>
   </si>
   <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
     <t>Jenis Pengeluaran</t>
   </si>
   <si>
@@ -62,9 +65,6 @@
     <t>Formulir Pendaftaran</t>
   </si>
   <si>
-    <t>2018-08-03</t>
-  </si>
-  <si>
     <t>Annida, Toko</t>
   </si>
   <si>
@@ -78,30 +78,6 @@
   </si>
   <si>
     <t>Sub Total Kegiatan Awal Tahun (PPDB)</t>
-  </si>
-  <si>
-    <t>Kegiatan Proses Belajar Mengajar</t>
-  </si>
-  <si>
-    <t>ATK TU &amp; Kantor</t>
-  </si>
-  <si>
-    <t>2018-08-10</t>
-  </si>
-  <si>
-    <t>Budi Jaya, UD</t>
-  </si>
-  <si>
-    <t>Kertas A4</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Sub Total ATK TU &amp; Kantor</t>
-  </si>
-  <si>
-    <t>Sub Total Kegiatan Proses Belajar Mengajar</t>
   </si>
   <si>
     <t>Total Pengeluaran</t>
@@ -449,10 +425,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,45 +438,51 @@
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>43333</v>
+        <v>43335</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -508,17 +490,17 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -568,72 +550,11 @@
       <c r="A12"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
-        <v>30000</v>
-      </c>
-      <c r="J15">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21">
-        <v>2310000</v>
+      <c r="L13">
+        <v>2220000</v>
       </c>
     </row>
   </sheetData>
@@ -649,13 +570,6 @@
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A13:K13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Laporan Pengeluaran</t>
   </si>
@@ -23,7 +23,10 @@
     <t>#12566</t>
   </si>
   <si>
-    <t>2018-08-03</t>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
   </si>
   <si>
     <t>Jenis Pengeluaran</t>
@@ -57,27 +60,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Kegiatan Awal Tahun (PPDB)</t>
-  </si>
-  <si>
-    <t>Formulir Pendaftaran</t>
-  </si>
-  <si>
-    <t>Annida, Toko</t>
-  </si>
-  <si>
-    <t>Ballpoint</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>Sub Total Formulir Pendaftaran</t>
-  </si>
-  <si>
-    <t>Sub Total Kegiatan Awal Tahun (PPDB)</t>
   </si>
   <si>
     <t>Total Pengeluaran</t>
@@ -425,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,114 +429,53 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>222</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>10000</v>
-      </c>
-      <c r="J7">
-        <v>2220000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8">
-        <v>2220000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>2220000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13">
-        <v>2220000</v>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -563,13 +484,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:K13"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -15,18 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Laporan Pengeluaran</t>
   </si>
   <si>
-    <t>#12566</t>
-  </si>
-  <si>
-    <t>2018-09-01</t>
-  </si>
-  <si>
-    <t>2018-09-30</t>
+    <t>Periode 01-09-2018 s.d. 30-09-2018</t>
   </si>
   <si>
     <t>Jenis Pengeluaran</t>
@@ -102,8 +96,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="15" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -407,83 +401,78 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>43335</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Laporan Pengeluaran</t>
   </si>
   <si>
-    <t>Periode 01-09-2018 s.d. 30-09-2018</t>
+    <t>Periode 01-08-2018 s.d. 31-08-2018</t>
   </si>
   <si>
     <t>Jenis Pengeluaran</t>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Kegiatan Awal Tahun (PPDB)</t>
+  </si>
+  <si>
+    <t>Formulir Pendaftaran</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>Annida, Toko</t>
+  </si>
+  <si>
+    <t>Ballpoint</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>Sub Total Formulir Pendaftaran</t>
+  </si>
+  <si>
+    <t>Sub Total Kegiatan Awal Tahun (PPDB)</t>
   </si>
   <si>
     <t>Total Pengeluaran</t>
@@ -401,10 +425,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,11 +482,72 @@
       <c r="A5"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="L6">
-        <v>0</v>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>222</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+      <c r="J8">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>2220000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>2220000</v>
       </c>
     </row>
   </sheetData>
@@ -473,6 +558,13 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:K14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -62,7 +62,7 @@
     <t>Formulir Pendaftaran</t>
   </si>
   <si>
-    <t>2018-08-03</t>
+    <t>03-08-2018</t>
   </si>
   <si>
     <t>Annida, Toko</t>
@@ -116,12 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -428,10 +431,22 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
@@ -444,37 +459,38 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -504,24 +520,24 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>222</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>10000</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>2220000</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>2220000</v>
       </c>
     </row>
@@ -529,10 +545,10 @@
       <c r="B10"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>2220000</v>
       </c>
     </row>
@@ -543,10 +559,10 @@
       <c r="A13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>2220000</v>
       </c>
     </row>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Laporan Pengeluaran</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>Sub Total Kegiatan Awal Tahun (PPDB)</t>
+  </si>
+  <si>
+    <t>Kegiatan Proses Belajar Mengajar</t>
+  </si>
+  <si>
+    <t>ATK TU &amp; Kantor</t>
+  </si>
+  <si>
+    <t>10-08-2018</t>
+  </si>
+  <si>
+    <t>Budi Jaya, UD</t>
+  </si>
+  <si>
+    <t>Kertas A4</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>Sub Total ATK TU &amp; Kantor</t>
+  </si>
+  <si>
+    <t>Sub Total Kegiatan Proses Belajar Mengajar</t>
   </si>
   <si>
     <t>Total Pengeluaran</t>
@@ -110,13 +134,65 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -128,6 +204,30 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,16 +528,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
@@ -459,17 +559,17 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -495,26 +595,40 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5"/>
+      <c r="A5" s="5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:12">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:12">
+      <c r="A8" s="5"/>
+      <c r="B8"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>11</v>
       </c>
       <c r="F8" t="s">
@@ -534,15 +648,23 @@
       </c>
     </row>
     <row r="9" spans="1:12">
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="10"/>
       <c r="J9" s="2">
         <v>2220000</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
@@ -559,11 +681,72 @@
       <c r="A13"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="2">
-        <v>2220000</v>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2">
+        <v>30000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2310000</v>
       </c>
     </row>
   </sheetData>
@@ -581,6 +764,13 @@
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:K22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -211,6 +211,9 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -224,6 +227,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -528,10 +534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,35 +568,35 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -599,7 +605,14 @@
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" s="10"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
@@ -608,7 +621,14 @@
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="10"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5"/>
@@ -617,7 +637,14 @@
       </c>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" s="10"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5"/>
@@ -628,7 +655,7 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8">
         <v>11</v>
       </c>
       <c r="F8" t="s">
@@ -646,6 +673,8 @@
       <c r="J8" s="2">
         <v>2220000</v>
       </c>
+      <c r="K8"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5"/>
@@ -654,43 +683,112 @@
       </c>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="10"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" s="2">
         <v>2220000</v>
       </c>
+      <c r="K9"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="K11" s="2">
         <v>2220000</v>
       </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12"/>
+      <c r="A12" s="5"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13"/>
+      <c r="A13" s="5"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>22</v>
       </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16" s="5"/>
+      <c r="B16"/>
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -715,39 +813,118 @@
       <c r="J16" s="2">
         <v>90000</v>
       </c>
+      <c r="K16"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12">
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" s="2">
         <v>90000</v>
       </c>
+      <c r="K17"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
+      <c r="A18" s="5"/>
       <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
       <c r="K19" s="2">
         <v>90000</v>
       </c>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20"/>
+      <c r="A20" s="5"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21"/>
+      <c r="A21" s="5"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="2">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22" s="12">
         <v>2310000</v>
       </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -214,8 +214,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -229,10 +229,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="8" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -534,10 +531,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -895,36 +892,22 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="12">
         <v>2310000</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -134,56 +134,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -192,44 +154,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="8" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -562,350 +503,350 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" s="11"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
-      <c r="B7" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" s="11"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8"/>
-      <c r="C8" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>222</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>10000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="5">
         <v>2220000</v>
       </c>
-      <c r="K8"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" s="2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5">
         <v>2220000</v>
       </c>
-      <c r="K9"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10" s="11"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11" s="2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5">
         <v>2220000</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" s="11"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" s="11"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" s="11"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15" s="11"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="5"/>
-      <c r="B16"/>
-      <c r="C16" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>30000</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>90000</v>
       </c>
-      <c r="K16"/>
-      <c r="L16" s="11"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5">
         <v>90000</v>
       </c>
-      <c r="K17"/>
-      <c r="L17" s="11"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" s="2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5">
         <v>90000</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="12">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="5">
         <v>2310000</v>
       </c>
     </row>

--- a/Laporan Pengeluaran.xlsx
+++ b/Laporan Pengeluaran.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Laporan Pengeluaran</t>
   </si>
   <si>
-    <t>Periode 01-08-2018 s.d. 31-08-2018</t>
+    <t>Periode 01-09-2018 s.d. 30-09-2018</t>
   </si>
   <si>
     <t>Jenis Pengeluaran</t>
@@ -54,54 +54,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Kegiatan Awal Tahun (PPDB)</t>
-  </si>
-  <si>
-    <t>Formulir Pendaftaran</t>
-  </si>
-  <si>
-    <t>03-08-2018</t>
-  </si>
-  <si>
-    <t>Annida, Toko</t>
-  </si>
-  <si>
-    <t>Ballpoint</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>Sub Total Formulir Pendaftaran</t>
-  </si>
-  <si>
-    <t>Sub Total Kegiatan Awal Tahun (PPDB)</t>
-  </si>
-  <si>
-    <t>Kegiatan Proses Belajar Mengajar</t>
-  </si>
-  <si>
-    <t>ATK TU &amp; Kantor</t>
-  </si>
-  <si>
-    <t>10-08-2018</t>
-  </si>
-  <si>
-    <t>Budi Jaya, UD</t>
-  </si>
-  <si>
-    <t>Kertas A4</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Sub Total ATK TU &amp; Kantor</t>
-  </si>
-  <si>
-    <t>Sub Total Kegiatan Proses Belajar Mengajar</t>
   </si>
   <si>
     <t>Total Pengeluaran</t>
@@ -472,24 +424,24 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="6.998291" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -553,7 +505,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3"/>
@@ -566,288 +518,8 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5">
-        <v>222</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="5">
-        <v>2220000</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5">
-        <v>2220000</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5">
-        <v>2220000</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="5">
-        <v>30000</v>
-      </c>
-      <c r="J16" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="5">
-        <v>90000</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="5">
-        <v>2310000</v>
+      <c r="L6" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -858,20 +530,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A22:K22"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
